--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-medicationtiming.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-medicationtiming.xlsx
@@ -358,7 +358,7 @@
     <t>服用もしくは注射を行なうタイミングを示す時刻</t>
   </si>
   <si>
-    <t>服用タイミングを具体的な日時で指定する場合に使⽤する</t>
+    <t>服用タイミングを具体的な日時で指定する場合に使用する</t>
   </si>
   <si>
     <t>In a Medication Administration Record, for instance, you need to take a general specification, and turn it into a precise specification.</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-medicationtiming.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-medicationtiming.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1134" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1168" uniqueCount="266">
   <si>
     <t>Property</t>
   </si>
@@ -572,6 +572,36 @@
   </si>
   <si>
     <t>PQ.code, MO.currency, PQ.translation.code</t>
+  </si>
+  <si>
+    <t>boundsRange</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Range {http://jpfhir.jp/fhir/core/StructureDefinition/JP_MedicationRange}
+</t>
+  </si>
+  <si>
+    <t>Set of values bounded by low and high</t>
+  </si>
+  <si>
+    <t>A set of ordered Quantities defined by a low and high limit.</t>
+  </si>
+  <si>
+    <t>The stated low and high value are assumed to have arbitrarily high precision when it comes to determining which values are in the range. I.e. 1.99 is not in the range 2 -&gt; 3.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+rng-2:If present, low SHALL have a lower value than high {low.empty() or high.empty() or (low &lt;= high)}</t>
+  </si>
+  <si>
+    <t>NR and also possibly SN (but see also quantity)</t>
+  </si>
+  <si>
+    <t>IVL&lt;QTY[not(type="TS")]&gt; [lowClosed="true" and highClosed="true"]or URG&lt;QTY[not(type="TS")]&gt;</t>
   </si>
   <si>
     <t>Timing.repeat.count</t>
@@ -1113,7 +1143,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK33"/>
+  <dimension ref="A1:AK34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1157,8 +1187,8 @@
     <col min="33" max="33" width="11.0390625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="13.875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="28.1484375" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="68.94921875" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="44.546875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="94.8359375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2331,7 +2361,7 @@
         <v>75</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="G12" t="s" s="2">
         <v>74</v>
@@ -2536,7 +2566,7 @@
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="F14" t="s" s="2">
         <v>84</v>
@@ -2750,7 +2780,7 @@
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="F16" t="s" s="2">
         <v>84</v>
@@ -2855,7 +2885,7 @@
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="F17" t="s" s="2">
         <v>84</v>
@@ -2960,7 +2990,7 @@
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="F18" t="s" s="2">
         <v>84</v>
@@ -3059,9 +3089,11 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="B19" t="s" s="2">
         <v>180</v>
       </c>
-      <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
         <v>74</v>
       </c>
@@ -3079,7 +3111,7 @@
         <v>74</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>103</v>
+        <v>74</v>
       </c>
       <c r="J19" t="s" s="2">
         <v>181</v>
@@ -3093,9 +3125,7 @@
       <c r="M19" t="s" s="2">
         <v>184</v>
       </c>
-      <c r="N19" t="s" s="2">
-        <v>185</v>
-      </c>
+      <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
         <v>74</v>
       </c>
@@ -3143,7 +3173,7 @@
         <v>74</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>180</v>
+        <v>123</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>75</v>
@@ -3152,21 +3182,21 @@
         <v>84</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>74</v>
+        <v>185</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>80</v>
+        <v>186</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>74</v>
+        <v>187</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3189,18 +3219,20 @@
         <v>103</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="N20" s="2"/>
+        <v>193</v>
+      </c>
+      <c r="N20" t="s" s="2">
+        <v>194</v>
+      </c>
       <c r="O20" t="s" s="2">
         <v>74</v>
       </c>
@@ -3248,7 +3280,7 @@
         <v>74</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>75</v>
@@ -3266,12 +3298,12 @@
         <v>74</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>186</v>
+        <v>195</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3294,20 +3326,18 @@
         <v>103</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>136</v>
+        <v>190</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>195</v>
-      </c>
+        <v>199</v>
+      </c>
+      <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
         <v>74</v>
       </c>
@@ -3355,7 +3385,7 @@
         <v>74</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>75</v>
@@ -3373,12 +3403,12 @@
         <v>74</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3404,16 +3434,16 @@
         <v>136</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="O22" t="s" s="2">
         <v>74</v>
@@ -3462,7 +3492,7 @@
         <v>74</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>75</v>
@@ -3480,12 +3510,12 @@
         <v>74</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>196</v>
+        <v>205</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3508,18 +3538,20 @@
         <v>103</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="M23" t="s" s="2">
         <v>203</v>
       </c>
-      <c r="N23" s="2"/>
+      <c r="N23" t="s" s="2">
+        <v>204</v>
+      </c>
       <c r="O23" t="s" s="2">
         <v>74</v>
       </c>
@@ -3543,13 +3575,13 @@
         <v>74</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>149</v>
+        <v>74</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>204</v>
+        <v>74</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>205</v>
+        <v>74</v>
       </c>
       <c r="Z23" t="s" s="2">
         <v>74</v>
@@ -3567,7 +3599,7 @@
         <v>74</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>75</v>
@@ -3585,12 +3617,12 @@
         <v>74</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -3613,24 +3645,22 @@
         <v>103</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>181</v>
+        <v>144</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
         <v>74</v>
       </c>
-      <c r="P24" t="s" s="2">
-        <v>211</v>
-      </c>
+      <c r="P24" s="2"/>
       <c r="Q24" t="s" s="2">
         <v>74</v>
       </c>
@@ -3650,13 +3680,13 @@
         <v>74</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>74</v>
+        <v>149</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>74</v>
+        <v>213</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>74</v>
+        <v>214</v>
       </c>
       <c r="Z24" t="s" s="2">
         <v>74</v>
@@ -3674,7 +3704,7 @@
         <v>74</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>75</v>
@@ -3692,12 +3722,12 @@
         <v>74</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>196</v>
+        <v>215</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -3720,22 +3750,24 @@
         <v>103</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
         <v>74</v>
       </c>
-      <c r="P25" s="2"/>
+      <c r="P25" t="s" s="2">
+        <v>220</v>
+      </c>
       <c r="Q25" t="s" s="2">
         <v>74</v>
       </c>
@@ -3779,7 +3811,7 @@
         <v>74</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>75</v>
@@ -3797,12 +3829,12 @@
         <v>74</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>196</v>
+        <v>205</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -3825,16 +3857,16 @@
         <v>103</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>136</v>
+        <v>190</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
@@ -3884,7 +3916,7 @@
         <v>74</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>75</v>
@@ -3902,12 +3934,12 @@
         <v>74</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>196</v>
+        <v>205</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -3933,13 +3965,13 @@
         <v>136</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
@@ -3989,7 +4021,7 @@
         <v>74</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>75</v>
@@ -4007,12 +4039,12 @@
         <v>74</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>196</v>
+        <v>205</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4035,16 +4067,16 @@
         <v>103</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>201</v>
+        <v>229</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>203</v>
+        <v>231</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
@@ -4070,13 +4102,13 @@
         <v>74</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>149</v>
+        <v>74</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>204</v>
+        <v>74</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>205</v>
+        <v>74</v>
       </c>
       <c r="Z28" t="s" s="2">
         <v>74</v>
@@ -4094,7 +4126,7 @@
         <v>74</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>75</v>
@@ -4112,12 +4144,12 @@
         <v>74</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4128,7 +4160,7 @@
         <v>75</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>74</v>
@@ -4143,13 +4175,13 @@
         <v>144</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>226</v>
+        <v>210</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>228</v>
+        <v>212</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
@@ -4177,9 +4209,11 @@
       <c r="W29" t="s" s="2">
         <v>149</v>
       </c>
-      <c r="X29" s="2"/>
+      <c r="X29" t="s" s="2">
+        <v>213</v>
+      </c>
       <c r="Y29" t="s" s="2">
-        <v>229</v>
+        <v>214</v>
       </c>
       <c r="Z29" t="s" s="2">
         <v>74</v>
@@ -4197,13 +4231,13 @@
         <v>74</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>74</v>
@@ -4215,12 +4249,12 @@
         <v>74</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>89</v>
+        <v>215</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4243,16 +4277,16 @@
         <v>103</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>231</v>
+        <v>144</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
@@ -4278,13 +4312,11 @@
         <v>74</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X30" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="X30" s="2"/>
       <c r="Y30" t="s" s="2">
-        <v>74</v>
+        <v>238</v>
       </c>
       <c r="Z30" t="s" s="2">
         <v>74</v>
@@ -4302,7 +4334,7 @@
         <v>74</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>75</v>
@@ -4325,7 +4357,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4348,20 +4380,18 @@
         <v>103</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>144</v>
+        <v>240</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>239</v>
-      </c>
+        <v>243</v>
+      </c>
+      <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
         <v>74</v>
       </c>
@@ -4385,13 +4415,13 @@
         <v>74</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>149</v>
+        <v>74</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>240</v>
+        <v>74</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>241</v>
+        <v>74</v>
       </c>
       <c r="Z31" t="s" s="2">
         <v>74</v>
@@ -4409,7 +4439,7 @@
         <v>74</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>75</v>
@@ -4427,12 +4457,12 @@
         <v>74</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>242</v>
+        <v>89</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4443,7 +4473,7 @@
         <v>75</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>74</v>
@@ -4455,7 +4485,7 @@
         <v>103</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>244</v>
+        <v>144</v>
       </c>
       <c r="K32" t="s" s="2">
         <v>245</v>
@@ -4464,9 +4494,11 @@
         <v>246</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="N32" s="2"/>
+        <v>247</v>
+      </c>
+      <c r="N32" t="s" s="2">
+        <v>248</v>
+      </c>
       <c r="O32" t="s" s="2">
         <v>74</v>
       </c>
@@ -4490,13 +4522,13 @@
         <v>74</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>74</v>
+        <v>149</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>74</v>
+        <v>249</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>74</v>
+        <v>250</v>
       </c>
       <c r="Z32" t="s" s="2">
         <v>74</v>
@@ -4514,13 +4546,13 @@
         <v>74</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>74</v>
@@ -4532,12 +4564,12 @@
         <v>74</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>247</v>
+        <v>251</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -4560,16 +4592,16 @@
         <v>103</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>252</v>
+        <v>219</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
@@ -4595,13 +4627,13 @@
         <v>74</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>253</v>
+        <v>74</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>254</v>
+        <v>74</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>255</v>
+        <v>74</v>
       </c>
       <c r="Z33" t="s" s="2">
         <v>74</v>
@@ -4619,7 +4651,7 @@
         <v>74</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>75</v>
@@ -4638,6 +4670,111 @@
       </c>
       <c r="AK33" t="s" s="2">
         <v>256</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="B34" s="2"/>
+      <c r="C34" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D34" s="2"/>
+      <c r="E34" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F34" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G34" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H34" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I34" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="J34" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="K34" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="L34" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="M34" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="N34" s="2"/>
+      <c r="O34" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P34" s="2"/>
+      <c r="Q34" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R34" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S34" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T34" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U34" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V34" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W34" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="X34" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="Y34" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="Z34" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA34" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB34" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC34" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD34" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE34" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="AF34" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG34" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH34" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI34" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ34" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK34" t="s" s="2">
+        <v>265</v>
       </c>
     </row>
   </sheetData>

--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-medicationtiming.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-medicationtiming.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1168" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="902" uniqueCount="218">
   <si>
     <t>Property</t>
   </si>
@@ -416,265 +416,118 @@
     <t>IVL(TS) used in a QSI</t>
   </si>
   <si>
-    <t>boundsDuration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Duration
+    <t>boundsRange</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Range {http://jpfhir.jp/fhir/core/StructureDefinition/JP_MedicationRange}
 </t>
   </si>
   <si>
-    <t>Length/Range of lengths, or (Start and/or end) limits</t>
-  </si>
-  <si>
-    <t>Either a duration for the length of the timing schedule, a range of possible length, or outer bounds for start and/or end limits of the timing schedule.</t>
-  </si>
-  <si>
-    <t>Timing.repeat.bounds[x].id</t>
-  </si>
-  <si>
-    <t>Timing.repeat.bounds[x].extension</t>
-  </si>
-  <si>
-    <t>Timing.repeat.bounds[x].value</t>
+    <t>Set of values bounded by low and high</t>
+  </si>
+  <si>
+    <t>A set of ordered Quantities defined by a low and high limit.</t>
+  </si>
+  <si>
+    <t>The stated low and high value are assumed to have arbitrarily high precision when it comes to determining which values are in the range. I.e. 1.99 is not in the range 2 -&gt; 3.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+rng-2:If present, low SHALL have a lower value than high {low.empty() or high.empty() or (low &lt;= high)}</t>
+  </si>
+  <si>
+    <t>NR and also possibly SN (but see also quantity)</t>
+  </si>
+  <si>
+    <t>IVL&lt;QTY[not(type="TS")]&gt; [lowClosed="true" and highClosed="true"]or URG&lt;QTY[not(type="TS")]&gt;</t>
+  </si>
+  <si>
+    <t>Timing.repeat.count</t>
+  </si>
+  <si>
+    <t xml:space="preserve">positiveInt
+</t>
+  </si>
+  <si>
+    <t>繰り返し服用もしくは注射回数</t>
+  </si>
+  <si>
+    <t>Timing仕様の全てにおいて、特定の期間に繰り返されるように指定された総回数。もし、countMaxが設定されていれば、このエレメントは許容される最低限度の回数を示す。</t>
+  </si>
+  <si>
+    <t>回数に上限、下限の範囲がある場合は、このcountで示される回数が起きるまでは、エレメントは範囲の中にあると解釈されるべきである。</t>
+  </si>
+  <si>
+    <t>Repetitions may be limited by end time or total occurrences.</t>
+  </si>
+  <si>
+    <t>PIVL.count</t>
+  </si>
+  <si>
+    <t>Timing.repeat.countMax</t>
+  </si>
+  <si>
+    <t>繰り返しの最大回数</t>
+  </si>
+  <si>
+    <t>このエレメントが設定されている場合は、回数に範囲があることを示している。したがって、[count]から[countmax]までの回数で繰り返される。</t>
+  </si>
+  <si>
+    <t>32bit整数。もし、値がこれを超える場合はdecimalで記録される。</t>
+  </si>
+  <si>
+    <t>Timing.repeat.duration</t>
   </si>
   <si>
     <t xml:space="preserve">decimal
 </t>
   </si>
   <si>
-    <t>投薬日数</t>
-  </si>
-  <si>
-    <t>The implicit precision in the value should always be honored. Monetary values have their own rules for handling precision (refer to standard accounting text books).</t>
-  </si>
-  <si>
-    <t>Precision is handled implicitly in almost all cases of measurement.</t>
-  </si>
-  <si>
-    <t>Quantity.value</t>
-  </si>
-  <si>
-    <t>SN.2  / CQ - N/A</t>
-  </si>
-  <si>
-    <t>PQ.value, CO.value, MO.value, IVL.high or IVL.low depending on the value</t>
-  </si>
-  <si>
-    <t>Timing.repeat.bounds[x].comparator</t>
+    <t>継続時間</t>
+  </si>
+  <si>
+    <t>投与されるタイミングが発生している時間。もし、durationMaxが設定されていれば、このエレメントは許容される継続時間の下限を示す。</t>
+  </si>
+  <si>
+    <t>継続時間はイベントの定義の一部（たとえば、静脈注射(IV)では特定の量と速度が明示される)として示されることがある。その他、Timing仕様の一部（たとえば、運動）として示されることもある。</t>
+  </si>
+  <si>
+    <t>アクティビティによっては即時的なものではなく、その期間において維持される必要がある。</t>
+  </si>
+  <si>
+    <t>PIVL.phase</t>
+  </si>
+  <si>
+    <t>Timing.repeat.durationMax</t>
+  </si>
+  <si>
+    <t>継続時間(最大値)</t>
+  </si>
+  <si>
+    <t>もし、このエレメントに値が設定されていれば、durationには範囲があることを示している。したがって、[duration]から[durationMax]までの継続時間の範囲で投与される。</t>
+  </si>
+  <si>
+    <t>Timing.repeat.durationUnit</t>
   </si>
   <si>
     <t xml:space="preserve">code
 </t>
   </si>
   <si>
-    <t>&lt; | &lt;= | &gt;= | &gt; - how to understand the value</t>
-  </si>
-  <si>
-    <t>How the value should be understood and represented - whether the actual value is greater or less than the stated value due to measurement issues; e.g. if the comparator is "&lt;" , then the real value is &lt; stated value.</t>
-  </si>
-  <si>
-    <t>Need a framework for handling measures where the value is &lt;5ug/L or &gt;400mg/L due to the limitations of measuring methodology.</t>
-  </si>
-  <si>
-    <t>If there is no comparator, then there is no modification of the value</t>
+    <t>s | min | h | d | wk | mo | a - unit of time (UCUM)</t>
+  </si>
+  <si>
+    <t>UCUM単位で表される継続時間についての単位。</t>
+  </si>
+  <si>
+    <t>FHIRの文字列は1MB以上の大きさとなってなはらない(SHALL NOT)。</t>
   </si>
   <si>
     <t>required</t>
-  </si>
-  <si>
-    <t>How the Quantity should be understood and represented.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/quantity-comparator|4.0.1</t>
-  </si>
-  <si>
-    <t>Quantity.comparator</t>
-  </si>
-  <si>
-    <t>SN.1  / CQ.1</t>
-  </si>
-  <si>
-    <t>IVL properties</t>
-  </si>
-  <si>
-    <t>Timing.repeat.bounds[x].unit</t>
-  </si>
-  <si>
-    <t>投薬日数の単位</t>
-  </si>
-  <si>
-    <t>投薬日数の単位文字列。日で固定される</t>
-  </si>
-  <si>
-    <t>There are many representations for units of measure and in many contexts, particular representations are fixed and required. I.e. mcg for micrograms.</t>
-  </si>
-  <si>
-    <t>日</t>
-  </si>
-  <si>
-    <t>Quantity.unit</t>
-  </si>
-  <si>
-    <t>(see OBX.6 etc.) / CQ.2</t>
-  </si>
-  <si>
-    <t>PQ.unit</t>
-  </si>
-  <si>
-    <t>Timing.repeat.bounds[x].system</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uri
-</t>
-  </si>
-  <si>
-    <t>UCUM</t>
-  </si>
-  <si>
-    <t>単位コード UCUMを識別するURI。固定値。</t>
-  </si>
-  <si>
-    <t>Need to know the system that defines the coded form of the unit.</t>
-  </si>
-  <si>
-    <t>http://unitsofmeasure.org</t>
-  </si>
-  <si>
-    <t>Quantity.system</t>
-  </si>
-  <si>
-    <t xml:space="preserve">qty-3
-</t>
-  </si>
-  <si>
-    <t>CO.codeSystem, PQ.translation.codeSystem</t>
-  </si>
-  <si>
-    <t>Timing.repeat.bounds[x].code</t>
-  </si>
-  <si>
-    <t>投与日数の単位</t>
-  </si>
-  <si>
-    <t>単位コードUCUMにおける投与日数の単位。dで固定される。</t>
-  </si>
-  <si>
-    <t>The preferred system is UCUM, but SNOMED CT can also be used (for customary units) or ISO 4217 for currency.  The context of use may additionally require a code from a particular system.</t>
-  </si>
-  <si>
-    <t>Need a computable form of the unit that is fixed across all forms. UCUM provides this for quantities, but SNOMED CT provides many units of interest.</t>
-  </si>
-  <si>
-    <t>d</t>
-  </si>
-  <si>
-    <t>Quantity.code</t>
-  </si>
-  <si>
-    <t>PQ.code, MO.currency, PQ.translation.code</t>
-  </si>
-  <si>
-    <t>boundsRange</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Range {http://jpfhir.jp/fhir/core/StructureDefinition/JP_MedicationRange}
-</t>
-  </si>
-  <si>
-    <t>Set of values bounded by low and high</t>
-  </si>
-  <si>
-    <t>A set of ordered Quantities defined by a low and high limit.</t>
-  </si>
-  <si>
-    <t>The stated low and high value are assumed to have arbitrarily high precision when it comes to determining which values are in the range. I.e. 1.99 is not in the range 2 -&gt; 3.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1
-</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-rng-2:If present, low SHALL have a lower value than high {low.empty() or high.empty() or (low &lt;= high)}</t>
-  </si>
-  <si>
-    <t>NR and also possibly SN (but see also quantity)</t>
-  </si>
-  <si>
-    <t>IVL&lt;QTY[not(type="TS")]&gt; [lowClosed="true" and highClosed="true"]or URG&lt;QTY[not(type="TS")]&gt;</t>
-  </si>
-  <si>
-    <t>Timing.repeat.count</t>
-  </si>
-  <si>
-    <t xml:space="preserve">positiveInt
-</t>
-  </si>
-  <si>
-    <t>繰り返し服用もしくは注射回数</t>
-  </si>
-  <si>
-    <t>Timing仕様の全てにおいて、特定の期間に繰り返されるように指定された総回数。もし、countMaxが設定されていれば、このエレメントは許容される最低限度の回数を示す。</t>
-  </si>
-  <si>
-    <t>回数に上限、下限の範囲がある場合は、このcountで示される回数が起きるまでは、エレメントは範囲の中にあると解釈されるべきである。</t>
-  </si>
-  <si>
-    <t>Repetitions may be limited by end time or total occurrences.</t>
-  </si>
-  <si>
-    <t>PIVL.count</t>
-  </si>
-  <si>
-    <t>Timing.repeat.countMax</t>
-  </si>
-  <si>
-    <t>繰り返しの最大回数</t>
-  </si>
-  <si>
-    <t>このエレメントが設定されている場合は、回数に範囲があることを示している。したがって、[count]から[countmax]までの回数で繰り返される。</t>
-  </si>
-  <si>
-    <t>32bit整数。もし、値がこれを超える場合はdecimalで記録される。</t>
-  </si>
-  <si>
-    <t>Timing.repeat.duration</t>
-  </si>
-  <si>
-    <t>継続時間</t>
-  </si>
-  <si>
-    <t>投与されるタイミングが発生している時間。もし、durationMaxが設定されていれば、このエレメントは許容される継続時間の下限を示す。</t>
-  </si>
-  <si>
-    <t>継続時間はイベントの定義の一部（たとえば、静脈注射(IV)では特定の量と速度が明示される)として示されることがある。その他、Timing仕様の一部（たとえば、運動）として示されることもある。</t>
-  </si>
-  <si>
-    <t>アクティビティによっては即時的なものではなく、その期間において維持される必要がある。</t>
-  </si>
-  <si>
-    <t>PIVL.phase</t>
-  </si>
-  <si>
-    <t>Timing.repeat.durationMax</t>
-  </si>
-  <si>
-    <t>継続時間(最大値)</t>
-  </si>
-  <si>
-    <t>もし、このエレメントに値が設定されていれば、durationには範囲があることを示している。したがって、[duration]から[durationMax]までの継続時間の範囲で投与される。</t>
-  </si>
-  <si>
-    <t>Timing.repeat.durationUnit</t>
-  </si>
-  <si>
-    <t>s | min | h | d | wk | mo | a - unit of time (UCUM)</t>
-  </si>
-  <si>
-    <t>UCUM単位で表される継続時間についての単位。</t>
-  </si>
-  <si>
-    <t>FHIRの文字列は1MB以上の大きさとなってなはらない(SHALL NOT)。</t>
   </si>
   <si>
     <t>A unit of time (units from UCUM).</t>
@@ -1143,7 +996,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK34"/>
+  <dimension ref="A1:AK26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1152,8 +1005,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="34.9765625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="15.734375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="27.5" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="13.625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="21.21875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
@@ -1175,8 +1028,8 @@
     <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="54.0859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="50.4921875" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="40.1875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="44.3046875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
@@ -2267,7 +2120,7 @@
         <v>74</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>103</v>
+        <v>74</v>
       </c>
       <c r="J11" t="s" s="2">
         <v>130</v>
@@ -2278,7 +2131,9 @@
       <c r="L11" t="s" s="2">
         <v>132</v>
       </c>
-      <c r="M11" s="2"/>
+      <c r="M11" t="s" s="2">
+        <v>133</v>
+      </c>
       <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
         <v>74</v>
@@ -2336,21 +2191,21 @@
         <v>84</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>74</v>
+        <v>134</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>80</v>
+        <v>135</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>74</v>
+        <v>136</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>128</v>
+        <v>137</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -2370,19 +2225,23 @@
         <v>74</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>74</v>
+        <v>103</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>85</v>
+        <v>139</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>86</v>
+        <v>140</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
+        <v>141</v>
+      </c>
+      <c r="M12" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="N12" t="s" s="2">
+        <v>143</v>
+      </c>
       <c r="O12" t="s" s="2">
         <v>74</v>
       </c>
@@ -2430,7 +2289,7 @@
         <v>74</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>88</v>
+        <v>138</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>75</v>
@@ -2442,29 +2301,29 @@
         <v>74</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AJ12" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>89</v>
+        <v>144</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="G13" t="s" s="2">
         <v>74</v>
@@ -2473,19 +2332,19 @@
         <v>74</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>74</v>
+        <v>103</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>92</v>
+        <v>139</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>93</v>
+        <v>146</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>94</v>
+        <v>147</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>95</v>
+        <v>148</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
@@ -2523,42 +2382,42 @@
         <v>74</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>97</v>
+        <v>74</v>
       </c>
       <c r="AC13" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>99</v>
+        <v>145</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AH13" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AJ13" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>89</v>
+        <v>144</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -2581,19 +2440,19 @@
         <v>103</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>136</v>
+        <v>150</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>137</v>
+        <v>151</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>138</v>
+        <v>153</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="O14" t="s" s="2">
         <v>74</v>
@@ -2642,7 +2501,7 @@
         <v>74</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>75</v>
@@ -2657,15 +2516,15 @@
         <v>80</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>141</v>
+        <v>74</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>142</v>
+        <v>155</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>143</v>
+        <v>156</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -2676,36 +2535,36 @@
         <v>75</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>74</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>103</v>
+        <v>74</v>
       </c>
       <c r="I15" t="s" s="2">
         <v>103</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="M15" s="2"/>
+        <v>158</v>
+      </c>
+      <c r="M15" t="s" s="2">
+        <v>153</v>
+      </c>
       <c r="N15" t="s" s="2">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="O15" t="s" s="2">
         <v>74</v>
       </c>
-      <c r="P15" t="s" s="2">
-        <v>148</v>
-      </c>
+      <c r="P15" s="2"/>
       <c r="Q15" t="s" s="2">
         <v>74</v>
       </c>
@@ -2725,13 +2584,13 @@
         <v>74</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>149</v>
+        <v>74</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>150</v>
+        <v>74</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>151</v>
+        <v>74</v>
       </c>
       <c r="Z15" t="s" s="2">
         <v>74</v>
@@ -2749,7 +2608,7 @@
         <v>74</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>75</v>
@@ -2764,15 +2623,15 @@
         <v>80</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>153</v>
+        <v>74</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -2795,66 +2654,66 @@
         <v>103</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>85</v>
+        <v>160</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="M16" s="2"/>
-      <c r="N16" t="s" s="2">
-        <v>158</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="M16" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
         <v>74</v>
       </c>
       <c r="P16" s="2"/>
       <c r="Q16" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R16" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S16" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T16" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U16" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V16" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W16" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="X16" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="Y16" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="Z16" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA16" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB16" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC16" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD16" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE16" t="s" s="2">
         <v>159</v>
-      </c>
-      <c r="R16" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S16" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T16" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U16" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V16" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W16" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X16" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y16" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z16" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA16" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB16" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC16" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD16" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE16" t="s" s="2">
-        <v>160</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>75</v>
@@ -2869,15 +2728,15 @@
         <v>80</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>161</v>
+        <v>74</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>162</v>
+        <v>167</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -2900,66 +2759,68 @@
         <v>103</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>164</v>
+        <v>139</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="M17" s="2"/>
-      <c r="N17" t="s" s="2">
-        <v>167</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="M17" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
         <v>74</v>
       </c>
-      <c r="P17" s="2"/>
+      <c r="P17" t="s" s="2">
+        <v>172</v>
+      </c>
       <c r="Q17" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R17" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S17" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T17" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U17" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V17" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W17" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X17" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y17" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z17" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA17" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB17" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC17" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD17" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE17" t="s" s="2">
         <v>168</v>
-      </c>
-      <c r="R17" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S17" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T17" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U17" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V17" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W17" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X17" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y17" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z17" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA17" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB17" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC17" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD17" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE17" t="s" s="2">
-        <v>169</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>75</v>
@@ -2968,21 +2829,21 @@
         <v>84</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>170</v>
+        <v>74</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>161</v>
+        <v>74</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>171</v>
+        <v>155</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3005,26 +2866,24 @@
         <v>103</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>176</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
         <v>74</v>
       </c>
       <c r="P18" s="2"/>
       <c r="Q18" t="s" s="2">
-        <v>177</v>
+        <v>74</v>
       </c>
       <c r="R18" t="s" s="2">
         <v>74</v>
@@ -3066,7 +2925,7 @@
         <v>74</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>75</v>
@@ -3081,19 +2940,17 @@
         <v>80</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>161</v>
+        <v>74</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>179</v>
+        <v>155</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="B19" t="s" s="2">
-        <v>180</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
         <v>74</v>
       </c>
@@ -3111,19 +2968,19 @@
         <v>74</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>74</v>
+        <v>103</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>181</v>
+        <v>150</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
@@ -3173,7 +3030,7 @@
         <v>74</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>123</v>
+        <v>176</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>75</v>
@@ -3182,21 +3039,21 @@
         <v>84</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>185</v>
+        <v>74</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>186</v>
+        <v>80</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>187</v>
+        <v>74</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>188</v>
+        <v>155</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3219,20 +3076,18 @@
         <v>103</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>190</v>
+        <v>150</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>194</v>
-      </c>
+        <v>183</v>
+      </c>
+      <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
         <v>74</v>
       </c>
@@ -3280,7 +3135,7 @@
         <v>74</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>75</v>
@@ -3298,12 +3153,12 @@
         <v>74</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>195</v>
+        <v>155</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3326,16 +3181,16 @@
         <v>103</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>190</v>
+        <v>160</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>197</v>
+        <v>161</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>199</v>
+        <v>163</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
@@ -3361,13 +3216,13 @@
         <v>74</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>74</v>
+        <v>164</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>74</v>
+        <v>165</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>74</v>
+        <v>166</v>
       </c>
       <c r="Z21" t="s" s="2">
         <v>74</v>
@@ -3385,7 +3240,7 @@
         <v>74</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>75</v>
@@ -3403,12 +3258,12 @@
         <v>74</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>195</v>
+        <v>167</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>200</v>
+        <v>186</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3419,7 +3274,7 @@
         <v>75</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>74</v>
@@ -3431,20 +3286,18 @@
         <v>103</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>136</v>
+        <v>160</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>201</v>
+        <v>187</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>202</v>
+        <v>188</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>204</v>
-      </c>
+        <v>189</v>
+      </c>
+      <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
         <v>74</v>
       </c>
@@ -3468,13 +3321,11 @@
         <v>74</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X22" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="X22" s="2"/>
       <c r="Y22" t="s" s="2">
-        <v>74</v>
+        <v>190</v>
       </c>
       <c r="Z22" t="s" s="2">
         <v>74</v>
@@ -3492,13 +3343,13 @@
         <v>74</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>200</v>
+        <v>186</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>74</v>
@@ -3510,12 +3361,12 @@
         <v>74</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>205</v>
+        <v>89</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>206</v>
+        <v>191</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3526,7 +3377,7 @@
         <v>75</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>74</v>
@@ -3538,20 +3389,18 @@
         <v>103</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>136</v>
+        <v>192</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>207</v>
+        <v>193</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>204</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
         <v>74</v>
       </c>
@@ -3599,13 +3448,13 @@
         <v>74</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>206</v>
+        <v>191</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>74</v>
@@ -3617,12 +3466,12 @@
         <v>74</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>205</v>
+        <v>89</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>209</v>
+        <v>196</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -3633,7 +3482,7 @@
         <v>75</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>74</v>
@@ -3645,18 +3494,20 @@
         <v>103</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>210</v>
+        <v>197</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>211</v>
+        <v>198</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="N24" s="2"/>
+        <v>199</v>
+      </c>
+      <c r="N24" t="s" s="2">
+        <v>200</v>
+      </c>
       <c r="O24" t="s" s="2">
         <v>74</v>
       </c>
@@ -3680,13 +3531,13 @@
         <v>74</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>149</v>
+        <v>164</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>213</v>
+        <v>201</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="Z24" t="s" s="2">
         <v>74</v>
@@ -3704,13 +3555,13 @@
         <v>74</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>209</v>
+        <v>196</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>74</v>
@@ -3722,12 +3573,12 @@
         <v>74</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>215</v>
+        <v>203</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>216</v>
+        <v>204</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -3750,24 +3601,22 @@
         <v>103</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>190</v>
+        <v>205</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>219</v>
+        <v>171</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
         <v>74</v>
       </c>
-      <c r="P25" t="s" s="2">
-        <v>220</v>
-      </c>
+      <c r="P25" s="2"/>
       <c r="Q25" t="s" s="2">
         <v>74</v>
       </c>
@@ -3811,7 +3660,7 @@
         <v>74</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>216</v>
+        <v>204</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>75</v>
@@ -3829,12 +3678,12 @@
         <v>74</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>205</v>
+        <v>208</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -3857,16 +3706,16 @@
         <v>103</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>190</v>
+        <v>210</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
@@ -3892,13 +3741,13 @@
         <v>74</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>74</v>
+        <v>214</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>74</v>
+        <v>215</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>74</v>
+        <v>216</v>
       </c>
       <c r="Z26" t="s" s="2">
         <v>74</v>
@@ -3916,7 +3765,7 @@
         <v>74</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>75</v>
@@ -3934,847 +3783,7 @@
         <v>74</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="B27" s="2"/>
-      <c r="C27" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D27" s="2"/>
-      <c r="E27" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F27" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="G27" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H27" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I27" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="J27" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="K27" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="L27" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="N27" s="2"/>
-      <c r="O27" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P27" s="2"/>
-      <c r="Q27" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="R27" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S27" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T27" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U27" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V27" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W27" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X27" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y27" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z27" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA27" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB27" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC27" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD27" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE27" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="AF27" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG27" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH27" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI27" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ27" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AK27" t="s" s="2">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="B28" s="2"/>
-      <c r="C28" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D28" s="2"/>
-      <c r="E28" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F28" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="G28" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H28" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I28" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="J28" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="K28" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="L28" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="N28" s="2"/>
-      <c r="O28" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P28" s="2"/>
-      <c r="Q28" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="R28" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S28" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T28" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U28" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V28" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W28" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X28" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y28" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z28" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA28" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB28" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC28" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD28" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE28" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="AF28" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG28" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH28" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI28" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ28" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AK28" t="s" s="2">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="B29" s="2"/>
-      <c r="C29" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D29" s="2"/>
-      <c r="E29" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F29" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="G29" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H29" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I29" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="J29" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="K29" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="L29" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="N29" s="2"/>
-      <c r="O29" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P29" s="2"/>
-      <c r="Q29" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="R29" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S29" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T29" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U29" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V29" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W29" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="X29" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="Y29" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="Z29" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA29" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB29" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC29" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD29" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE29" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="AF29" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG29" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH29" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI29" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ29" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AK29" t="s" s="2">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="B30" s="2"/>
-      <c r="C30" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D30" s="2"/>
-      <c r="E30" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F30" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G30" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H30" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I30" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="J30" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="K30" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="L30" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="N30" s="2"/>
-      <c r="O30" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P30" s="2"/>
-      <c r="Q30" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="R30" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S30" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T30" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U30" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V30" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W30" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="X30" s="2"/>
-      <c r="Y30" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="Z30" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA30" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB30" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC30" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD30" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE30" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="AF30" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG30" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH30" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI30" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ30" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AK30" t="s" s="2">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="B31" s="2"/>
-      <c r="C31" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D31" s="2"/>
-      <c r="E31" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F31" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G31" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H31" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I31" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="J31" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="K31" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="L31" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="M31" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="N31" s="2"/>
-      <c r="O31" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P31" s="2"/>
-      <c r="Q31" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="R31" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S31" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T31" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U31" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V31" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W31" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X31" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y31" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z31" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA31" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB31" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC31" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD31" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE31" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="AF31" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG31" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH31" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI31" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ31" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AK31" t="s" s="2">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="B32" s="2"/>
-      <c r="C32" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D32" s="2"/>
-      <c r="E32" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F32" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G32" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H32" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I32" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="J32" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="K32" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="L32" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="O32" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P32" s="2"/>
-      <c r="Q32" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="R32" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S32" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T32" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U32" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V32" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W32" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="X32" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="Y32" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="Z32" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA32" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB32" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC32" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD32" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE32" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="AF32" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG32" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH32" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI32" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ32" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AK32" t="s" s="2">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="B33" s="2"/>
-      <c r="C33" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D33" s="2"/>
-      <c r="E33" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F33" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="G33" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H33" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I33" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="J33" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="K33" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="L33" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="N33" s="2"/>
-      <c r="O33" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P33" s="2"/>
-      <c r="Q33" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="R33" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S33" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T33" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U33" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V33" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W33" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X33" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y33" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z33" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA33" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB33" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC33" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD33" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE33" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="AF33" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG33" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH33" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI33" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ33" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AK33" t="s" s="2">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="B34" s="2"/>
-      <c r="C34" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D34" s="2"/>
-      <c r="E34" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F34" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="G34" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H34" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I34" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="J34" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="K34" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="L34" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="N34" s="2"/>
-      <c r="O34" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P34" s="2"/>
-      <c r="Q34" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="R34" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S34" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T34" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U34" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V34" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W34" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="X34" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="Y34" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="Z34" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA34" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB34" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC34" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD34" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE34" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="AF34" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG34" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH34" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI34" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ34" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AK34" t="s" s="2">
-        <v>265</v>
+        <v>217</v>
       </c>
     </row>
   </sheetData>

--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-medicationtiming.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-medicationtiming.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="902" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="902" uniqueCount="217">
   <si>
     <t>Property</t>
   </si>
@@ -423,13 +423,10 @@
 </t>
   </si>
   <si>
-    <t>Set of values bounded by low and high</t>
-  </si>
-  <si>
-    <t>A set of ordered Quantities defined by a low and high limit.</t>
-  </si>
-  <si>
-    <t>The stated low and high value are assumed to have arbitrarily high precision when it comes to determining which values are in the range. I.e. 1.99 is not in the range 2 -&gt; 3.</t>
+    <t>薬剤の単位指定された上限下限量</t>
+  </si>
+  <si>
+    <t>薬剤の上限量、下限量の範囲を持っている。単位指定された数量を割り当てている。</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1
@@ -2129,10 +2126,10 @@
         <v>131</v>
       </c>
       <c r="L11" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="M11" t="s" s="2">
         <v>132</v>
-      </c>
-      <c r="M11" t="s" s="2">
-        <v>133</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
@@ -2191,21 +2188,21 @@
         <v>84</v>
       </c>
       <c r="AH11" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="AI11" t="s" s="2">
         <v>134</v>
       </c>
-      <c r="AI11" t="s" s="2">
+      <c r="AJ11" t="s" s="2">
         <v>135</v>
       </c>
-      <c r="AJ11" t="s" s="2">
+      <c r="AK11" t="s" s="2">
         <v>136</v>
-      </c>
-      <c r="AK11" t="s" s="2">
-        <v>137</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -2228,19 +2225,19 @@
         <v>103</v>
       </c>
       <c r="J12" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="K12" t="s" s="2">
         <v>139</v>
       </c>
-      <c r="K12" t="s" s="2">
+      <c r="L12" t="s" s="2">
         <v>140</v>
       </c>
-      <c r="L12" t="s" s="2">
+      <c r="M12" t="s" s="2">
         <v>141</v>
       </c>
-      <c r="M12" t="s" s="2">
+      <c r="N12" t="s" s="2">
         <v>142</v>
-      </c>
-      <c r="N12" t="s" s="2">
-        <v>143</v>
       </c>
       <c r="O12" t="s" s="2">
         <v>74</v>
@@ -2289,7 +2286,7 @@
         <v>74</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>75</v>
@@ -2307,12 +2304,12 @@
         <v>74</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -2335,16 +2332,16 @@
         <v>103</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K13" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="L13" t="s" s="2">
         <v>146</v>
       </c>
-      <c r="L13" t="s" s="2">
+      <c r="M13" t="s" s="2">
         <v>147</v>
-      </c>
-      <c r="M13" t="s" s="2">
-        <v>148</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
@@ -2394,7 +2391,7 @@
         <v>74</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>75</v>
@@ -2412,12 +2409,12 @@
         <v>74</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -2440,19 +2437,19 @@
         <v>103</v>
       </c>
       <c r="J14" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="K14" t="s" s="2">
         <v>150</v>
       </c>
-      <c r="K14" t="s" s="2">
+      <c r="L14" t="s" s="2">
         <v>151</v>
       </c>
-      <c r="L14" t="s" s="2">
+      <c r="M14" t="s" s="2">
         <v>152</v>
       </c>
-      <c r="M14" t="s" s="2">
+      <c r="N14" t="s" s="2">
         <v>153</v>
-      </c>
-      <c r="N14" t="s" s="2">
-        <v>154</v>
       </c>
       <c r="O14" t="s" s="2">
         <v>74</v>
@@ -2501,7 +2498,7 @@
         <v>74</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>75</v>
@@ -2519,12 +2516,12 @@
         <v>74</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -2547,19 +2544,19 @@
         <v>103</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K15" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="L15" t="s" s="2">
         <v>157</v>
       </c>
-      <c r="L15" t="s" s="2">
-        <v>158</v>
-      </c>
       <c r="M15" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="N15" t="s" s="2">
         <v>153</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>154</v>
       </c>
       <c r="O15" t="s" s="2">
         <v>74</v>
@@ -2608,7 +2605,7 @@
         <v>74</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>75</v>
@@ -2626,12 +2623,12 @@
         <v>74</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -2654,16 +2651,16 @@
         <v>103</v>
       </c>
       <c r="J16" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="K16" t="s" s="2">
         <v>160</v>
       </c>
-      <c r="K16" t="s" s="2">
+      <c r="L16" t="s" s="2">
         <v>161</v>
       </c>
-      <c r="L16" t="s" s="2">
+      <c r="M16" t="s" s="2">
         <v>162</v>
-      </c>
-      <c r="M16" t="s" s="2">
-        <v>163</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
@@ -2689,14 +2686,14 @@
         <v>74</v>
       </c>
       <c r="W16" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="X16" t="s" s="2">
         <v>164</v>
       </c>
-      <c r="X16" t="s" s="2">
+      <c r="Y16" t="s" s="2">
         <v>165</v>
       </c>
-      <c r="Y16" t="s" s="2">
-        <v>166</v>
-      </c>
       <c r="Z16" t="s" s="2">
         <v>74</v>
       </c>
@@ -2713,7 +2710,7 @@
         <v>74</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>75</v>
@@ -2731,12 +2728,12 @@
         <v>74</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -2759,23 +2756,23 @@
         <v>103</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K17" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="L17" t="s" s="2">
         <v>169</v>
       </c>
-      <c r="L17" t="s" s="2">
+      <c r="M17" t="s" s="2">
         <v>170</v>
-      </c>
-      <c r="M17" t="s" s="2">
-        <v>171</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
         <v>74</v>
       </c>
       <c r="P17" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="Q17" t="s" s="2">
         <v>74</v>
@@ -2820,7 +2817,7 @@
         <v>74</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>75</v>
@@ -2838,12 +2835,12 @@
         <v>74</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -2866,16 +2863,16 @@
         <v>103</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K18" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="L18" t="s" s="2">
         <v>174</v>
       </c>
-      <c r="L18" t="s" s="2">
-        <v>175</v>
-      </c>
       <c r="M18" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
@@ -2925,7 +2922,7 @@
         <v>74</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>75</v>
@@ -2943,12 +2940,12 @@
         <v>74</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -2971,16 +2968,16 @@
         <v>103</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K19" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="L19" t="s" s="2">
         <v>177</v>
       </c>
-      <c r="L19" t="s" s="2">
+      <c r="M19" t="s" s="2">
         <v>178</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>179</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
@@ -3030,7 +3027,7 @@
         <v>74</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>75</v>
@@ -3048,12 +3045,12 @@
         <v>74</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3076,16 +3073,16 @@
         <v>103</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K20" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="L20" t="s" s="2">
         <v>181</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="M20" t="s" s="2">
         <v>182</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>183</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
@@ -3135,7 +3132,7 @@
         <v>74</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>75</v>
@@ -3153,12 +3150,12 @@
         <v>74</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3181,16 +3178,16 @@
         <v>103</v>
       </c>
       <c r="J21" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="K21" t="s" s="2">
         <v>160</v>
       </c>
-      <c r="K21" t="s" s="2">
-        <v>161</v>
-      </c>
       <c r="L21" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
@@ -3216,14 +3213,14 @@
         <v>74</v>
       </c>
       <c r="W21" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="X21" t="s" s="2">
         <v>164</v>
       </c>
-      <c r="X21" t="s" s="2">
+      <c r="Y21" t="s" s="2">
         <v>165</v>
       </c>
-      <c r="Y21" t="s" s="2">
-        <v>166</v>
-      </c>
       <c r="Z21" t="s" s="2">
         <v>74</v>
       </c>
@@ -3240,7 +3237,7 @@
         <v>74</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>75</v>
@@ -3258,12 +3255,12 @@
         <v>74</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3286,16 +3283,16 @@
         <v>103</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K22" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="L22" t="s" s="2">
         <v>187</v>
       </c>
-      <c r="L22" t="s" s="2">
+      <c r="M22" t="s" s="2">
         <v>188</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>189</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
@@ -3321,11 +3318,11 @@
         <v>74</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="X22" s="2"/>
       <c r="Y22" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="Z22" t="s" s="2">
         <v>74</v>
@@ -3343,7 +3340,7 @@
         <v>74</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>75</v>
@@ -3366,7 +3363,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3389,16 +3386,16 @@
         <v>103</v>
       </c>
       <c r="J23" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="K23" t="s" s="2">
         <v>192</v>
       </c>
-      <c r="K23" t="s" s="2">
+      <c r="L23" t="s" s="2">
         <v>193</v>
       </c>
-      <c r="L23" t="s" s="2">
+      <c r="M23" t="s" s="2">
         <v>194</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>195</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
@@ -3448,7 +3445,7 @@
         <v>74</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>75</v>
@@ -3471,7 +3468,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -3494,19 +3491,19 @@
         <v>103</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K24" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="L24" t="s" s="2">
         <v>197</v>
       </c>
-      <c r="L24" t="s" s="2">
+      <c r="M24" t="s" s="2">
         <v>198</v>
       </c>
-      <c r="M24" t="s" s="2">
+      <c r="N24" t="s" s="2">
         <v>199</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>200</v>
       </c>
       <c r="O24" t="s" s="2">
         <v>74</v>
@@ -3531,14 +3528,14 @@
         <v>74</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="X24" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="Y24" t="s" s="2">
         <v>201</v>
       </c>
-      <c r="Y24" t="s" s="2">
-        <v>202</v>
-      </c>
       <c r="Z24" t="s" s="2">
         <v>74</v>
       </c>
@@ -3555,7 +3552,7 @@
         <v>74</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>75</v>
@@ -3573,12 +3570,12 @@
         <v>74</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -3601,16 +3598,16 @@
         <v>103</v>
       </c>
       <c r="J25" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="K25" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="K25" t="s" s="2">
+      <c r="L25" t="s" s="2">
         <v>206</v>
       </c>
-      <c r="L25" t="s" s="2">
-        <v>207</v>
-      </c>
       <c r="M25" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
@@ -3660,7 +3657,7 @@
         <v>74</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>75</v>
@@ -3678,12 +3675,12 @@
         <v>74</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -3706,16 +3703,16 @@
         <v>103</v>
       </c>
       <c r="J26" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="K26" t="s" s="2">
         <v>210</v>
       </c>
-      <c r="K26" t="s" s="2">
+      <c r="L26" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="L26" t="s" s="2">
+      <c r="M26" t="s" s="2">
         <v>212</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>213</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
@@ -3741,14 +3738,14 @@
         <v>74</v>
       </c>
       <c r="W26" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="X26" t="s" s="2">
         <v>214</v>
       </c>
-      <c r="X26" t="s" s="2">
+      <c r="Y26" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="Y26" t="s" s="2">
-        <v>216</v>
-      </c>
       <c r="Z26" t="s" s="2">
         <v>74</v>
       </c>
@@ -3765,7 +3762,7 @@
         <v>74</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>75</v>
@@ -3783,7 +3780,7 @@
         <v>74</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
   </sheetData>

--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-medicationtiming.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-medicationtiming.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="902" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="869" uniqueCount="208">
   <si>
     <t>Property</t>
   </si>
@@ -409,38 +409,7 @@
     <t>服用・注射開始日から服用・注射終了日までの全日数。実投与日数ではないことに注意する。</t>
   </si>
   <si>
-    <t xml:space="preserve">type:$this}
-</t>
-  </si>
-  <si>
     <t>IVL(TS) used in a QSI</t>
-  </si>
-  <si>
-    <t>boundsRange</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Range {http://jpfhir.jp/fhir/core/StructureDefinition/JP_MedicationRange}
-</t>
-  </si>
-  <si>
-    <t>薬剤の単位指定された上限下限量</t>
-  </si>
-  <si>
-    <t>薬剤の上限量、下限量の範囲を持っている。単位指定された数量を割り当てている。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1
-</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-rng-2:If present, low SHALL have a lower value than high {low.empty() or high.empty() or (low &lt;= high)}</t>
-  </si>
-  <si>
-    <t>NR and also possibly SN (but see also quantity)</t>
-  </si>
-  <si>
-    <t>IVL&lt;QTY[not(type="TS")]&gt; [lowClosed="true" and highClosed="true"]or URG&lt;QTY[not(type="TS")]&gt;</t>
   </si>
   <si>
     <t>Timing.repeat.count</t>
@@ -993,7 +962,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK26"/>
+  <dimension ref="A1:AK25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1003,7 +972,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="27.5" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="13.625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="12.66015625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="21.21875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
@@ -1037,8 +1006,8 @@
     <col min="33" max="33" width="11.0390625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="13.875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="44.546875" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="94.8359375" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="28.1484375" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="24.98046875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2062,14 +2031,16 @@
         <v>74</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="AB10" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="AB10" t="s" s="2">
+        <v>74</v>
+      </c>
       <c r="AC10" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD10" t="s" s="2">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="AE10" t="s" s="2">
         <v>123</v>
@@ -2090,16 +2061,14 @@
         <v>74</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="B11" t="s" s="2">
-        <v>129</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
         <v>74</v>
       </c>
@@ -2117,13 +2086,13 @@
         <v>74</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>74</v>
+        <v>103</v>
       </c>
       <c r="J11" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="K11" t="s" s="2">
         <v>130</v>
-      </c>
-      <c r="K11" t="s" s="2">
-        <v>131</v>
       </c>
       <c r="L11" t="s" s="2">
         <v>131</v>
@@ -2131,7 +2100,9 @@
       <c r="M11" t="s" s="2">
         <v>132</v>
       </c>
-      <c r="N11" s="2"/>
+      <c r="N11" t="s" s="2">
+        <v>133</v>
+      </c>
       <c r="O11" t="s" s="2">
         <v>74</v>
       </c>
@@ -2179,7 +2150,7 @@
         <v>74</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>75</v>
@@ -2188,21 +2159,21 @@
         <v>84</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>133</v>
+        <v>74</v>
       </c>
       <c r="AI11" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ11" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK11" t="s" s="2">
         <v>134</v>
-      </c>
-      <c r="AJ11" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="AK11" t="s" s="2">
-        <v>136</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -2225,20 +2196,18 @@
         <v>103</v>
       </c>
       <c r="J12" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="K12" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="L12" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="M12" t="s" s="2">
         <v>138</v>
       </c>
-      <c r="K12" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="L12" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="M12" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="N12" t="s" s="2">
-        <v>142</v>
-      </c>
+      <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
         <v>74</v>
       </c>
@@ -2286,7 +2255,7 @@
         <v>74</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>75</v>
@@ -2304,12 +2273,12 @@
         <v>74</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>143</v>
+        <v>134</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -2332,18 +2301,20 @@
         <v>103</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="N13" s="2"/>
+        <v>143</v>
+      </c>
+      <c r="N13" t="s" s="2">
+        <v>144</v>
+      </c>
       <c r="O13" t="s" s="2">
         <v>74</v>
       </c>
@@ -2391,7 +2362,7 @@
         <v>74</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>75</v>
@@ -2409,12 +2380,12 @@
         <v>74</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -2437,19 +2408,19 @@
         <v>103</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="O14" t="s" s="2">
         <v>74</v>
@@ -2498,7 +2469,7 @@
         <v>74</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>75</v>
@@ -2516,12 +2487,12 @@
         <v>74</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>154</v>
+        <v>145</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -2544,20 +2515,18 @@
         <v>103</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="N15" t="s" s="2">
         <v>153</v>
       </c>
+      <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
         <v>74</v>
       </c>
@@ -2581,13 +2550,13 @@
         <v>74</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>74</v>
+        <v>154</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>74</v>
+        <v>155</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>74</v>
+        <v>156</v>
       </c>
       <c r="Z15" t="s" s="2">
         <v>74</v>
@@ -2605,7 +2574,7 @@
         <v>74</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>75</v>
@@ -2623,7 +2592,7 @@
         <v>74</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>154</v>
+        <v>157</v>
       </c>
     </row>
     <row r="16">
@@ -2651,22 +2620,24 @@
         <v>103</v>
       </c>
       <c r="J16" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="K16" t="s" s="2">
         <v>159</v>
       </c>
-      <c r="K16" t="s" s="2">
+      <c r="L16" t="s" s="2">
         <v>160</v>
       </c>
-      <c r="L16" t="s" s="2">
+      <c r="M16" t="s" s="2">
         <v>161</v>
-      </c>
-      <c r="M16" t="s" s="2">
-        <v>162</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
         <v>74</v>
       </c>
-      <c r="P16" s="2"/>
+      <c r="P16" t="s" s="2">
+        <v>162</v>
+      </c>
       <c r="Q16" t="s" s="2">
         <v>74</v>
       </c>
@@ -2686,13 +2657,13 @@
         <v>74</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>163</v>
+        <v>74</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>164</v>
+        <v>74</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>165</v>
+        <v>74</v>
       </c>
       <c r="Z16" t="s" s="2">
         <v>74</v>
@@ -2728,12 +2699,12 @@
         <v>74</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>166</v>
+        <v>145</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -2756,24 +2727,22 @@
         <v>103</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
         <v>74</v>
       </c>
-      <c r="P17" t="s" s="2">
-        <v>171</v>
-      </c>
+      <c r="P17" s="2"/>
       <c r="Q17" t="s" s="2">
         <v>74</v>
       </c>
@@ -2817,7 +2786,7 @@
         <v>74</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>75</v>
@@ -2835,12 +2804,12 @@
         <v>74</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>154</v>
+        <v>145</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -2863,16 +2832,16 @@
         <v>103</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
@@ -2922,7 +2891,7 @@
         <v>74</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>75</v>
@@ -2940,12 +2909,12 @@
         <v>74</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>154</v>
+        <v>145</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -2968,16 +2937,16 @@
         <v>103</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
@@ -3027,7 +2996,7 @@
         <v>74</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>75</v>
@@ -3045,12 +3014,12 @@
         <v>74</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>154</v>
+        <v>145</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3073,16 +3042,16 @@
         <v>103</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>180</v>
+        <v>151</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>182</v>
+        <v>153</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
@@ -3108,13 +3077,13 @@
         <v>74</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>74</v>
+        <v>154</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>74</v>
+        <v>155</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>74</v>
+        <v>156</v>
       </c>
       <c r="Z20" t="s" s="2">
         <v>74</v>
@@ -3132,7 +3101,7 @@
         <v>74</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>75</v>
@@ -3150,12 +3119,12 @@
         <v>74</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>154</v>
+        <v>157</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3166,7 +3135,7 @@
         <v>75</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>74</v>
@@ -3178,16 +3147,16 @@
         <v>103</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>160</v>
+        <v>177</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>162</v>
+        <v>179</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
@@ -3213,13 +3182,11 @@
         <v>74</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="X21" t="s" s="2">
-        <v>164</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="X21" s="2"/>
       <c r="Y21" t="s" s="2">
-        <v>165</v>
+        <v>180</v>
       </c>
       <c r="Z21" t="s" s="2">
         <v>74</v>
@@ -3237,13 +3204,13 @@
         <v>74</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>74</v>
@@ -3255,12 +3222,12 @@
         <v>74</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>166</v>
+        <v>89</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3283,16 +3250,16 @@
         <v>103</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>159</v>
+        <v>182</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
@@ -3318,11 +3285,13 @@
         <v>74</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="X22" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="X22" t="s" s="2">
+        <v>74</v>
+      </c>
       <c r="Y22" t="s" s="2">
-        <v>189</v>
+        <v>74</v>
       </c>
       <c r="Z22" t="s" s="2">
         <v>74</v>
@@ -3340,7 +3309,7 @@
         <v>74</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>75</v>
@@ -3363,7 +3332,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3386,18 +3355,20 @@
         <v>103</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>191</v>
+        <v>150</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="N23" s="2"/>
+        <v>189</v>
+      </c>
+      <c r="N23" t="s" s="2">
+        <v>190</v>
+      </c>
       <c r="O23" t="s" s="2">
         <v>74</v>
       </c>
@@ -3421,13 +3392,13 @@
         <v>74</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>74</v>
+        <v>154</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>74</v>
+        <v>191</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>74</v>
+        <v>192</v>
       </c>
       <c r="Z23" t="s" s="2">
         <v>74</v>
@@ -3445,7 +3416,7 @@
         <v>74</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>75</v>
@@ -3463,12 +3434,12 @@
         <v>74</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>89</v>
+        <v>193</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -3479,7 +3450,7 @@
         <v>75</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>74</v>
@@ -3491,7 +3462,7 @@
         <v>103</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>159</v>
+        <v>195</v>
       </c>
       <c r="K24" t="s" s="2">
         <v>196</v>
@@ -3500,11 +3471,9 @@
         <v>197</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>199</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
         <v>74</v>
       </c>
@@ -3528,13 +3497,13 @@
         <v>74</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>163</v>
+        <v>74</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>200</v>
+        <v>74</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>201</v>
+        <v>74</v>
       </c>
       <c r="Z24" t="s" s="2">
         <v>74</v>
@@ -3552,13 +3521,13 @@
         <v>74</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>74</v>
@@ -3570,12 +3539,12 @@
         <v>74</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>202</v>
+        <v>198</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -3598,16 +3567,16 @@
         <v>103</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>170</v>
+        <v>203</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
@@ -3633,13 +3602,13 @@
         <v>74</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>74</v>
+        <v>204</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>74</v>
+        <v>205</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>74</v>
+        <v>206</v>
       </c>
       <c r="Z25" t="s" s="2">
         <v>74</v>
@@ -3657,7 +3626,7 @@
         <v>74</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>75</v>
@@ -3676,111 +3645,6 @@
       </c>
       <c r="AK25" t="s" s="2">
         <v>207</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="B26" s="2"/>
-      <c r="C26" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D26" s="2"/>
-      <c r="E26" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F26" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="G26" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H26" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I26" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="J26" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="K26" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="L26" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="N26" s="2"/>
-      <c r="O26" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P26" s="2"/>
-      <c r="Q26" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="R26" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S26" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T26" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U26" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V26" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W26" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="X26" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="Y26" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="Z26" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA26" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB26" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC26" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD26" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE26" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="AF26" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG26" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH26" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI26" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ26" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AK26" t="s" s="2">
-        <v>216</v>
       </c>
     </row>
   </sheetData>
